--- a/Fatores_catalogados.xlsx
+++ b/Fatores_catalogados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/jhonattan_lino_pucpr_edu_br/Documents/TCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/jhonattan_lino_pucpr_edu_br/Documents/Projetos/Python/Machine_Learnig_Factor_Investing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{2C00F4F9-A035-44F1-B9C4-03E8DFBE3220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{652EBF05-186F-41C2-A212-DD7F6F2A9650}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{2C00F4F9-A035-44F1-B9C4-03E8DFBE3220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED0F30AB-ED74-4550-B6E9-3B13D5D9ADEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{28DED7C1-F777-438C-8282-261275D17D75}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7965" activeTab="1" xr2:uid="{28DED7C1-F777-438C-8282-261275D17D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatores_macro" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,6 +836,7 @@
     <hyperlink ref="B13" r:id="rId11" xr:uid="{87AC440A-6F18-4174-9D4B-79315B0618BC}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{4C377ED7-BCD4-4CAE-9CC3-4DA957B31203}"/>
     <hyperlink ref="B15" r:id="rId13" xr:uid="{F8576445-38C9-497C-B6EA-5FB527D1145A}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{17F17D8E-2693-410D-8257-8997C00766EA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Fatores_catalogados.xlsx
+++ b/Fatores_catalogados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/jhonattan_lino_pucpr_edu_br/Documents/Projetos/Python/Machine_Learnig_Factor_Investing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{2C00F4F9-A035-44F1-B9C4-03E8DFBE3220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED0F30AB-ED74-4550-B6E9-3B13D5D9ADEF}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{2C00F4F9-A035-44F1-B9C4-03E8DFBE3220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4103C58-975D-49F0-BC44-F68DE0D4F2BE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7965" activeTab="1" xr2:uid="{28DED7C1-F777-438C-8282-261275D17D75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{28DED7C1-F777-438C-8282-261275D17D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatores_macro" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fatores_catalogados.xlsx
+++ b/Fatores_catalogados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/jhonattan_lino_pucpr_edu_br/Documents/Projetos/Python/Machine_Learnig_Factor_Investing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{2C00F4F9-A035-44F1-B9C4-03E8DFBE3220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4103C58-975D-49F0-BC44-F68DE0D4F2BE}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{2C00F4F9-A035-44F1-B9C4-03E8DFBE3220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABCD8C51-C7D3-4C7E-A239-853C0BD633F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{28DED7C1-F777-438C-8282-261275D17D75}"/>
+    <workbookView xWindow="-24120" yWindow="-870" windowWidth="24240" windowHeight="13260" xr2:uid="{28DED7C1-F777-438C-8282-261275D17D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatores_macro" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Fatores macroeconômicos</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Juros longo</t>
+  </si>
+  <si>
+    <t>Crédito</t>
   </si>
 </sst>
 </file>
@@ -561,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8053B5-E58B-40C0-81EA-F7664108F203}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +645,11 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -661,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC68BF1-1605-409F-A3AF-3FD8FA237F7B}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
